--- a/data/trans_orig/P14B_x_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9618A982-6FAF-41C6-9329-4E30871E36EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67740D71-82D0-41FF-AD35-BA3AD4004505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD85B765-A102-46EE-B54F-CA97D3E04C52}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03480BC4-C03F-44C0-8DF6-13B3CE6C09C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -311,838 +311,838 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,03%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>98,47%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
   </si>
   <si>
     <t>92,99%</t>
@@ -1626,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E43D8D-77C1-4071-AFBB-4DCD54AD0B52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9318B252-A91B-4A66-9491-468A5B09068B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3157,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE125FA-B7D6-43D2-8C49-3FAE290C086E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B113D-0EB1-403D-A08A-4D2465AA76EC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4670,7 +4670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C065FEA8-E750-4381-AEB5-DD385323A211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED5AABE-E217-4785-A9BA-E731611F8D24}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4982,10 +4982,10 @@
         <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5000,13 @@
         <v>488849</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>444</v>
@@ -5015,13 +5015,13 @@
         <v>478940</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -5030,13 +5030,13 @@
         <v>967789</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5104,13 @@
         <v>2900</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5119,13 +5119,13 @@
         <v>17854</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5134,13 +5134,13 @@
         <v>20754</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5155,13 @@
         <v>315665</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -5170,13 +5170,13 @@
         <v>318455</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>647</v>
@@ -5185,13 +5185,13 @@
         <v>634120</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5259,13 @@
         <v>4991</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5274,13 +5274,13 @@
         <v>17841</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5289,13 +5289,13 @@
         <v>22832</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5310,13 @@
         <v>364973</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -5414,13 +5414,13 @@
         <v>10660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5429,13 +5429,13 @@
         <v>18046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -5444,13 +5444,13 @@
         <v>28705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5465,13 @@
         <v>200561</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -5480,13 +5480,13 @@
         <v>200541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -5495,13 +5495,13 @@
         <v>401103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,7 +5575,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5584,13 +5584,13 @@
         <v>26883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5599,13 +5599,13 @@
         <v>29443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,7 +5623,7 @@
         <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -5635,13 +5635,13 @@
         <v>246232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>494</v>
@@ -5650,13 +5650,13 @@
         <v>506795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5724,13 @@
         <v>7279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5739,13 +5739,13 @@
         <v>28934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -5754,13 +5754,13 @@
         <v>36213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,10 +5775,10 @@
         <v>649279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>200</v>
@@ -5882,10 +5882,10 @@
         <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5894,13 +5894,13 @@
         <v>53055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5909,13 +5909,13 @@
         <v>70230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5930,13 @@
         <v>761408</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="H26" s="7">
         <v>710</v>
@@ -5945,13 +5945,13 @@
         <v>773112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M26" s="7">
         <v>1442</v>
@@ -5960,13 +5960,13 @@
         <v>1534520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6034,13 @@
         <v>66891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -6049,13 +6049,13 @@
         <v>237917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -6064,13 +6064,13 @@
         <v>304808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6085,13 @@
         <v>3327459</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H29" s="7">
         <v>3123</v>
@@ -6100,13 +6100,13 @@
         <v>3306625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M29" s="7">
         <v>6288</v>
@@ -6115,13 +6115,13 @@
         <v>6634084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACD4CEF-AC9A-47E0-B1B1-1917ECA6CCA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E6F1E-88B0-4375-9082-8A441EF41CE0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6218,7 +6218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6325,13 +6325,13 @@
         <v>4197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -6340,13 +6340,13 @@
         <v>12554</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6355,13 +6355,13 @@
         <v>16751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6376,13 @@
         <v>256101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>510</v>
@@ -6391,13 +6391,13 @@
         <v>258849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6406,13 +6406,13 @@
         <v>514949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6480,13 @@
         <v>21556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -6495,13 +6495,13 @@
         <v>59424</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -6510,13 +6510,13 @@
         <v>80979</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6531,13 @@
         <v>497741</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>632</v>
@@ -6546,13 +6546,13 @@
         <v>495142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>996</v>
@@ -6561,13 +6561,13 @@
         <v>992885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6635,13 @@
         <v>18890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6650,13 +6650,13 @@
         <v>23831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -6665,13 +6665,13 @@
         <v>42721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6686,13 @@
         <v>303350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -6701,13 +6701,13 @@
         <v>349453</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>835</v>
@@ -6716,13 +6716,13 @@
         <v>652803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6790,13 @@
         <v>17102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -6805,13 +6805,13 @@
         <v>36525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -6820,13 +6820,13 @@
         <v>53627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6841,13 @@
         <v>305138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>539</v>
@@ -6856,13 +6856,13 @@
         <v>392031</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -6871,13 +6871,13 @@
         <v>697169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6945,13 @@
         <v>2562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -6960,13 +6960,13 @@
         <v>10304</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6975,13 +6975,13 @@
         <v>12866</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,10 +6996,10 @@
         <v>194186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>60</v>
@@ -7011,13 +7011,13 @@
         <v>249209</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>747</v>
@@ -7026,13 +7026,13 @@
         <v>443394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7100,13 @@
         <v>15437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -7115,13 +7115,13 @@
         <v>19504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -7130,13 +7130,13 @@
         <v>34941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7151,13 @@
         <v>261786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -7166,13 +7166,13 @@
         <v>256118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -7181,13 +7181,13 @@
         <v>517904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7255,13 @@
         <v>31053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -7270,13 +7270,13 @@
         <v>73379</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -7285,13 +7285,13 @@
         <v>104432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7306,13 @@
         <v>596701</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>858</v>
@@ -7321,13 +7321,13 @@
         <v>730824</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>1427</v>
@@ -7336,13 +7336,13 @@
         <v>1327525</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,13 +7410,13 @@
         <v>21443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>360</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -7425,13 +7425,13 @@
         <v>60912</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -7440,13 +7440,13 @@
         <v>82355</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,13 +7461,13 @@
         <v>837985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H26" s="7">
         <v>984</v>

--- a/data/trans_orig/P14B_x_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67740D71-82D0-41FF-AD35-BA3AD4004505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A8679A6-3616-4C1C-8E14-52275677218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03480BC4-C03F-44C0-8DF6-13B3CE6C09C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82F91876-218D-4E86-86C7-5644856B2B70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="394">
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -305,916 +305,922 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>91,3%</t>
+    <t>91,09%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9318B252-A91B-4A66-9491-468A5B09068B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1DF5FA-E2BD-4AC8-B521-6414A4410CD0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3038,7 +3044,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3068,7 +3074,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3089,7 +3095,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3119,7 +3125,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3157,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B113D-0EB1-403D-A08A-4D2465AA76EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B7DF65-CAC3-47C6-9214-686761D0B35A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4670,7 +4676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED5AABE-E217-4785-A9BA-E731611F8D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550D28EE-21F1-4B06-A231-605B40335416}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4982,10 +4988,10 @@
         <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5006,13 @@
         <v>488849</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>444</v>
@@ -5015,13 +5021,13 @@
         <v>478940</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -5030,13 +5036,13 @@
         <v>967789</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5110,13 @@
         <v>2900</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5119,13 +5125,13 @@
         <v>17854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5134,13 +5140,13 @@
         <v>20754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5161,13 @@
         <v>315665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -5170,13 +5176,13 @@
         <v>318455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>647</v>
@@ -5185,13 +5191,13 @@
         <v>634120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5265,13 @@
         <v>4991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5274,13 +5280,13 @@
         <v>17841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5289,13 +5295,13 @@
         <v>22832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5316,13 @@
         <v>364973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -5325,13 +5331,13 @@
         <v>369442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>690</v>
@@ -5340,13 +5346,13 @@
         <v>734415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5420,13 @@
         <v>10660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5429,13 +5435,13 @@
         <v>18046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -5444,13 +5450,13 @@
         <v>28705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5471,13 @@
         <v>200561</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -5480,13 +5486,13 @@
         <v>200541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -5495,13 +5501,13 @@
         <v>401103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,7 +5581,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5584,13 +5590,13 @@
         <v>26883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5599,13 +5605,13 @@
         <v>29443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,7 +5629,7 @@
         <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -5635,13 +5641,13 @@
         <v>246232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>494</v>
@@ -5650,13 +5656,13 @@
         <v>506795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5730,13 @@
         <v>7279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5739,13 +5745,13 @@
         <v>28934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -5754,13 +5760,13 @@
         <v>36213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5781,13 @@
         <v>649279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
         <v>621</v>
@@ -5790,13 +5796,13 @@
         <v>662360</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -5805,13 +5811,13 @@
         <v>1311639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5885,13 @@
         <v>17175</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5894,13 +5900,13 @@
         <v>53055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5909,13 +5915,13 @@
         <v>70230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5936,13 @@
         <v>761408</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H26" s="7">
         <v>710</v>
@@ -5945,13 +5951,13 @@
         <v>773112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M26" s="7">
         <v>1442</v>
@@ -5960,13 +5966,13 @@
         <v>1534520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6040,13 @@
         <v>66891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -6049,13 +6055,13 @@
         <v>237917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -6064,13 +6070,13 @@
         <v>304808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6091,13 @@
         <v>3327459</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H29" s="7">
         <v>3123</v>
@@ -6100,13 +6106,13 @@
         <v>3306625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M29" s="7">
         <v>6288</v>
@@ -6115,13 +6121,13 @@
         <v>6634084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,7 +6207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E6F1E-88B0-4375-9082-8A441EF41CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E98AE1E-CA31-49D4-B0C5-545AC35D743A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6218,7 +6224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6325,13 +6331,13 @@
         <v>4197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -6340,13 +6346,13 @@
         <v>12554</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6355,13 +6361,13 @@
         <v>16751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6382,13 @@
         <v>256101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>510</v>
@@ -6391,13 +6397,13 @@
         <v>258849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6406,7 +6412,7 @@
         <v>514949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>260</v>
@@ -6635,13 +6641,13 @@
         <v>18890</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6650,13 +6656,13 @@
         <v>23831</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -6665,13 +6671,13 @@
         <v>42721</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6692,13 @@
         <v>303350</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -6701,13 +6707,13 @@
         <v>349453</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>835</v>
@@ -6716,13 +6722,13 @@
         <v>652803</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6796,13 @@
         <v>17102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -6805,13 +6811,13 @@
         <v>36525</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -6820,13 +6826,13 @@
         <v>53627</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6847,13 @@
         <v>305138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>539</v>
@@ -6856,13 +6862,13 @@
         <v>392031</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -6871,13 +6877,13 @@
         <v>697169</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6951,13 @@
         <v>2562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -6960,13 +6966,13 @@
         <v>10304</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6975,13 +6981,13 @@
         <v>12866</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,10 +7002,10 @@
         <v>194186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>60</v>
@@ -7011,13 +7017,13 @@
         <v>249209</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>747</v>
@@ -7026,13 +7032,13 @@
         <v>443394</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7106,13 @@
         <v>15437</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -7115,13 +7121,13 @@
         <v>19504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -7130,13 +7136,13 @@
         <v>34941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7157,13 @@
         <v>261786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -7166,13 +7172,13 @@
         <v>256118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -7181,13 +7187,13 @@
         <v>517904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7261,13 @@
         <v>31053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>343</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -7270,13 +7276,13 @@
         <v>73379</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -7285,13 +7291,13 @@
         <v>104432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7312,13 @@
         <v>596701</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>858</v>
@@ -7321,13 +7327,13 @@
         <v>730824</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>1427</v>
@@ -7336,10 +7342,10 @@
         <v>1327525</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>359</v>
@@ -7410,13 +7416,13 @@
         <v>21443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -7425,13 +7431,13 @@
         <v>60912</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -7440,13 +7446,13 @@
         <v>82355</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>364</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,13 +7467,13 @@
         <v>837985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>369</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H26" s="7">
         <v>984</v>
@@ -7476,13 +7482,13 @@
         <v>807522</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M26" s="7">
         <v>1724</v>
@@ -7491,13 +7497,13 @@
         <v>1645507</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,13 +7571,13 @@
         <v>132239</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H28" s="7">
         <v>452</v>
@@ -7580,28 +7586,28 @@
         <v>296432</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M28" s="7">
         <v>589</v>
       </c>
       <c r="N28" s="7">
-        <v>428672</v>
+        <v>428671</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,13 +7622,13 @@
         <v>3252989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H29" s="7">
         <v>4915</v>
@@ -7631,13 +7637,13 @@
         <v>3539149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>8154</v>
@@ -7646,13 +7652,13 @@
         <v>6792137</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,7 +7700,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14B_x_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A8679A6-3616-4C1C-8E14-52275677218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E99A5B3-72DB-4012-807C-049A6CE345BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82F91876-218D-4E86-86C7-5644856B2B70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A19DFBB-EFBB-4FFD-95C1-B362F2D55D44}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="392">
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -311,916 +311,910 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1DF5FA-E2BD-4AC8-B521-6414A4410CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F0BEA-26AB-45AB-8C91-9CB3465E9122}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3044,7 +3038,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3074,7 +3068,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3095,7 +3089,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3125,7 +3119,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3163,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B7DF65-CAC3-47C6-9214-686761D0B35A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BC7868-DB8A-44B7-9502-7324CBFBBAF0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4676,7 +4670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550D28EE-21F1-4B06-A231-605B40335416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120365EE-6294-4B44-80DD-B93BBC51AADB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5268,10 +5262,10 @@
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5280,13 +5274,13 @@
         <v>17841</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5295,13 +5289,13 @@
         <v>22832</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5310,13 @@
         <v>364973</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -5331,13 +5325,13 @@
         <v>369442</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>690</v>
@@ -5346,13 +5340,13 @@
         <v>734415</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5414,13 @@
         <v>10660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5435,13 +5429,13 @@
         <v>18046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -5450,13 +5444,13 @@
         <v>28705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5465,13 @@
         <v>200561</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -5486,13 +5480,13 @@
         <v>200541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -5501,13 +5495,13 @@
         <v>401103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,7 +5575,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5590,13 +5584,13 @@
         <v>26883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5605,13 +5599,13 @@
         <v>29443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5623,7 @@
         <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -5641,13 +5635,13 @@
         <v>246232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>494</v>
@@ -5656,13 +5650,13 @@
         <v>506795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5724,13 @@
         <v>7279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -5745,13 +5739,13 @@
         <v>28934</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -5760,13 +5754,13 @@
         <v>36213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5775,13 @@
         <v>649279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H23" s="7">
         <v>621</v>
@@ -5796,13 +5790,13 @@
         <v>662360</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -5811,13 +5805,13 @@
         <v>1311639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5879,13 @@
         <v>17175</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5900,13 +5894,13 @@
         <v>53055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5915,13 +5909,13 @@
         <v>70230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5930,13 @@
         <v>761408</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>710</v>
@@ -5951,13 +5945,13 @@
         <v>773112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>1442</v>
@@ -5966,13 +5960,13 @@
         <v>1534520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6034,13 @@
         <v>66891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -6055,13 +6049,13 @@
         <v>237917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -6070,13 +6064,13 @@
         <v>304808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6085,13 @@
         <v>3327459</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>3123</v>
@@ -6106,13 +6100,13 @@
         <v>3306625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>6288</v>
@@ -6121,13 +6115,13 @@
         <v>6634084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E98AE1E-CA31-49D4-B0C5-545AC35D743A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B05C0EF-F51B-4208-8DEB-036A37607629}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6224,7 +6218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6331,13 +6325,13 @@
         <v>4197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -6346,13 +6340,13 @@
         <v>12554</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6361,13 +6355,13 @@
         <v>16751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6376,13 @@
         <v>256101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>510</v>
@@ -6397,13 +6391,13 @@
         <v>258849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6412,13 +6406,13 @@
         <v>514949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6480,13 @@
         <v>21556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -6501,13 +6495,13 @@
         <v>59424</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -6516,13 +6510,13 @@
         <v>80979</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6531,13 @@
         <v>497741</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>632</v>
@@ -6552,13 +6546,13 @@
         <v>495142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>996</v>
@@ -6567,13 +6561,13 @@
         <v>992885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6635,13 @@
         <v>18890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -6656,13 +6650,13 @@
         <v>23831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -6671,13 +6665,13 @@
         <v>42721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6686,13 @@
         <v>303350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
@@ -6707,13 +6701,13 @@
         <v>349453</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>835</v>
@@ -6722,13 +6716,13 @@
         <v>652803</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,10 +6793,10 @@
         <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -6811,13 +6805,13 @@
         <v>36525</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -6826,13 +6820,13 @@
         <v>53627</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,10 +6844,10 @@
         <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>539</v>
@@ -6862,13 +6856,13 @@
         <v>392031</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>815</v>
@@ -6877,13 +6871,13 @@
         <v>697169</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6945,13 @@
         <v>2562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -6966,13 +6960,13 @@
         <v>10304</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -6981,13 +6975,13 @@
         <v>12866</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,10 +6996,10 @@
         <v>194186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>60</v>
@@ -7017,13 +7011,13 @@
         <v>249209</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>747</v>
@@ -7032,13 +7026,13 @@
         <v>443394</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7100,13 @@
         <v>15437</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -7121,13 +7115,13 @@
         <v>19504</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -7136,13 +7130,13 @@
         <v>34941</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7151,13 @@
         <v>261786</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -7172,13 +7166,13 @@
         <v>256118</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>774</v>
@@ -7193,7 +7187,7 @@
         <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,7 +7291,7 @@
         <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7306,13 @@
         <v>596701</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H23" s="7">
         <v>858</v>
@@ -7327,13 +7321,13 @@
         <v>730824</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M23" s="7">
         <v>1427</v>
@@ -7342,13 +7336,13 @@
         <v>1327525</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7410,13 @@
         <v>21443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -7431,13 +7425,13 @@
         <v>60912</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -7446,13 +7440,13 @@
         <v>82355</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7461,13 @@
         <v>837985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>370</v>
+        <v>234</v>
       </c>
       <c r="H26" s="7">
         <v>984</v>
@@ -7482,13 +7476,13 @@
         <v>807522</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>1724</v>
@@ -7497,13 +7491,13 @@
         <v>1645507</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7565,13 @@
         <v>132239</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H28" s="7">
         <v>452</v>
@@ -7586,28 +7580,28 @@
         <v>296432</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M28" s="7">
         <v>589</v>
       </c>
       <c r="N28" s="7">
-        <v>428671</v>
+        <v>428672</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7616,13 @@
         <v>3252989</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H29" s="7">
         <v>4915</v>
@@ -7637,13 +7631,13 @@
         <v>3539149</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>8154</v>
@@ -7652,13 +7646,13 @@
         <v>6792137</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,7 +7694,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
